--- a/Datos/Database by set/Set with text box/Xlsx sets/Planar Chaos Promos (PPLC).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Planar Chaos Promos (PPLC).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,84 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hedge Troll</t>
+          <t>('Hedge Troll', ['{2}{G}', 'Creature — Troll Cleric', 'Hedge Troll gets +1/+1 as long as you control a Plains.', '{W}: Regenerate Hedge Troll.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Troll Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Hedge Troll gets +1/+1 as long as you control a Plains.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>{W}: Regenerate Hedge Troll.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Oros, the Avenger</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{3}{R}{W}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Whenever Oros, the Avenger deals combat damage to a player, you may pay {2}{W}. If you do, Oros deals 3 damage to each nonwhite creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6/6</t>
+          <t>('Oros, the Avenger', ['{3}{R}{W}{B}', 'Legendary Creature — Dragon', 'Flying', 'Whenever Oros, the Avenger deals combat damage to a player, you may pay {2}{W}. If you do, Oros deals 3 damage to each nonwhite creature.', '6/6'])</t>
         </is>
       </c>
     </row>
